--- a/112-2/ADVANCED C PROGRAMMING/Quiz 2/quiz2_grade_purdue.xlsx
+++ b/112-2/ADVANCED C PROGRAMMING/Quiz 2/quiz2_grade_purdue.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FCU\112-2\ADVANCED C PROGRAMMING\Quiz 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E698E3-5EC9-4972-8E0F-F427EB4402B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quiz2" sheetId="1" r:id="rId1"/>
+    <sheet name="Question 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Question 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">quiz2!$E$1:$G$22</definedName>
@@ -22,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="133">
   <si>
     <t>No</t>
   </si>
@@ -349,23 +355,115 @@
   </si>
   <si>
     <t>Starbucks</t>
+  </si>
+  <si>
+    <t>Score</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 1: </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Question 2: </t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>constructor</t>
+  </si>
+  <si>
+    <t>perimeter, area</t>
+  </si>
+  <si>
+    <t>istream overloading</t>
+  </si>
+  <si>
+    <t>ostream overloading</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node constructor</t>
+  </si>
+  <si>
+    <t>IQueue Constructor</t>
+  </si>
+  <si>
+    <t>enqueue</t>
+  </si>
+  <si>
+    <t>dequeue</t>
+  </si>
+  <si>
+    <t>isEmpty</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>main function</t>
+  </si>
+  <si>
+    <t>Incorrect definition of constructor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect return perimeter and area</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly overload istream</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly overload ostream</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>didn't assign tail==NULL when clear</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect Node Constructor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect IQueue Constructor</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect enqueue method</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect dequeue method</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly clear IQueue</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect main function logic</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrongly determine isEmpty</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,208 +471,64 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微軟正黑體"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微軟正黑體"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="PMingLiu"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="136"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,192 +537,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -806,256 +586,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1114,93 +665,271 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="Hyperlink" xfId="49"/>
-    <cellStyle name="一般 2" xfId="50"/>
-    <cellStyle name="一般 3" xfId="51"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="19">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1211,7 +940,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1239,154 +968,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="totalRow" dxfId="16"/>
+      <tableStyleElement type="firstColumn" dxfId="15"/>
+      <tableStyleElement type="lastColumn" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="totalRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="7"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="6"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="5"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="4"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="3"/>
+      <tableStyleElement type="pageFieldValues" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1636,35 +1251,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozenSplit"/>
-      <selection/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F17" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.775" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="4.775" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.3333333333333" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.66666666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="9.55833333333333" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" customWidth="1"/>
-    <col min="6" max="6" width="57.6666666666667" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.10833333333333" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.775" style="4"/>
+    <col min="6" max="6" width="57.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.77734375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1687,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="15.5" spans="1:7">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="218.4">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1703,10 +1317,29 @@
       <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="15.5" spans="1:7">
+      <c r="F2" s="12" t="str">
+        <f>'Question 1'!I3&amp;'Question 2'!L3</f>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G2" s="7">
+        <f>'Question 1'!D3+'Question 2'!D3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="124.8">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1722,10 +1355,23 @@
       <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15.5" spans="1:7">
+      <c r="F3" s="12" t="str">
+        <f>'Question 1'!I4&amp;'Question 2'!L4</f>
+        <v xml:space="preserve">Question 1: -5
+Wrongly overload istream(-5)
+Question 2: -32
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="G3" s="7">
+        <f>'Question 1'!D4+'Question 2'!D4</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="109.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1741,10 +1387,22 @@
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15.5" spans="1:7">
+      <c r="F4" s="12" t="str">
+        <f>'Question 1'!I5&amp;'Question 2'!L5</f>
+        <v xml:space="preserve">Question 1: -18
+Wrongly overload istream(-8)
+Wrongly overload ostream(-10)
+Question 2: -15
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="G4" s="7">
+        <f>'Question 1'!D5+'Question 2'!D5</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="156">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1760,10 +1418,25 @@
       <c r="E5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.5" spans="1:7">
+      <c r="F5" s="12" t="str">
+        <f>'Question 1'!I6&amp;'Question 2'!L6</f>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+Question 2: -46
+Incorrect Node Constructor(-8)
+Incorrect IQueue Constructor(-8)
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-15)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G5" s="7">
+        <f>'Question 1'!D6+'Question 2'!D6</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1779,10 +1452,26 @@
       <c r="E6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15.5" spans="1:7">
+      <c r="F6" s="12" t="str">
+        <f>'Question 1'!I7&amp;'Question 2'!L7</f>
+        <v xml:space="preserve">Question 1: -5
+Wrongly overload istream(-5)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G6" s="7">
+        <f>'Question 1'!D7+'Question 2'!D7</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="78">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1798,10 +1487,20 @@
       <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F7" s="12" t="str">
+        <f>'Question 1'!I8&amp;'Question 2'!L8</f>
+        <v xml:space="preserve">Question 1: -3
+Incorrect definition of constructor(-3)
+Question 2: -3
+Wrongly clear IQueue(-3)
+</v>
+      </c>
+      <c r="G7" s="7">
+        <f>'Question 1'!D8+'Question 2'!D8</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="156">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1817,10 +1516,25 @@
       <c r="E8" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F8" s="12" t="str">
+        <f>'Question 1'!I9&amp;'Question 2'!L9</f>
+        <v xml:space="preserve">Question 1: -6
+Incorrect definition of constructor(-1)
+Wrongly overload istream(-5)
+Question 2: -43
+Incorrect Node Constructor(-3)
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-15)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G8" s="7">
+        <f>'Question 1'!D9+'Question 2'!D9</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="124.8">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1836,10 +1550,23 @@
       <c r="E9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F9" s="12" t="str">
+        <f>'Question 1'!I10&amp;'Question 2'!L10</f>
+        <v xml:space="preserve">Question 1: -10
+Wrongly overload istream(-8)
+Wrongly overload ostream(-2)
+Question 2: -11
+Incorrect Node Constructor(-3)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-3)
+</v>
+      </c>
+      <c r="G9" s="7">
+        <f>'Question 1'!D10+'Question 2'!D10</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="140.4">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1855,10 +1582,24 @@
       <c r="E10" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F10" s="12" t="str">
+        <f>'Question 1'!I11&amp;'Question 2'!L11</f>
+        <v xml:space="preserve">Question 1: -19
+Incorrect definition of constructor(-3)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+Wrongly overload ostream(-8)
+Question 2: -15
+Incorrect enqueue method(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G10" s="7">
+        <f>'Question 1'!D11+'Question 2'!D11</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="187.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1874,10 +1615,27 @@
       <c r="E11" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F11" s="12" t="str">
+        <f>'Question 1'!I12&amp;'Question 2'!L12</f>
+        <v xml:space="preserve">Question 1: -18
+Wrongly overload istream(-10)
+Wrongly overload ostream(-8)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G11" s="7">
+        <f>'Question 1'!D12+'Question 2'!D12</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="124.8">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -1893,10 +1651,23 @@
       <c r="E12" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F12" s="12" t="str">
+        <f>'Question 1'!I13&amp;'Question 2'!L13</f>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+Question 2: -20
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="G12" s="7">
+        <f>'Question 1'!D13+'Question 2'!D13</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="156">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -1912,10 +1683,25 @@
       <c r="E13" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F13" s="12" t="str">
+        <f>'Question 1'!I14&amp;'Question 2'!L14</f>
+        <v xml:space="preserve">Question 1: -25
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -30
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G13" s="7">
+        <f>'Question 1'!D14+'Question 2'!D14</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" ht="140.4">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -1931,10 +1717,24 @@
       <c r="E14" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F14" s="12" t="str">
+        <f>'Question 1'!I15&amp;'Question 2'!L15</f>
+        <v xml:space="preserve">Question 1: -8
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+Question 2: -28
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-8)
+</v>
+      </c>
+      <c r="G14" s="7">
+        <f>'Question 1'!D15+'Question 2'!D15</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="202.8">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -1950,10 +1750,28 @@
       <c r="E15" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F15" s="12" t="str">
+        <f>'Question 1'!I16&amp;'Question 2'!L16</f>
+        <v xml:space="preserve">Question 1: -18
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+Wrongly overload ostream(-10)
+Question 2: -65
+Incorrect Node Constructor(-5)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G15" s="7">
+        <f>'Question 1'!D16+'Question 2'!D16</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" ht="124.8">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -1969,10 +1787,23 @@
       <c r="E16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F16" s="12" t="str">
+        <f>'Question 1'!I17&amp;'Question 2'!L17</f>
+        <v xml:space="preserve">Question 1: -13
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-10)
+Question 2: -25
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G16" s="7">
+        <f>'Question 1'!D17+'Question 2'!D17</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" ht="202.8">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -1988,10 +1819,28 @@
       <c r="E17" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F17" s="12" t="str">
+        <f>'Question 1'!I18&amp;'Question 2'!L18</f>
+        <v xml:space="preserve">Question 1: -23
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G17" s="7">
+        <f>'Question 1'!D18+'Question 2'!D18</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="2" customFormat="1" ht="156">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -2007,10 +1856,25 @@
       <c r="E18" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F18" s="12" t="str">
+        <f>'Question 1'!I19&amp;'Question 2'!L19</f>
+        <v xml:space="preserve">Question 1: -23
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -27
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="G18" s="7">
+        <f>'Question 1'!D19+'Question 2'!D19</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -2026,10 +1890,26 @@
       <c r="E19" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F19" s="12" t="str">
+        <f>'Question 1'!I20&amp;'Question 2'!L20</f>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -28
+Incorrect Node Constructor(-3)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G19" s="7">
+        <f>'Question 1'!D20+'Question 2'!D20</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="2" customFormat="1" ht="171.6">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -2045,10 +1925,26 @@
       <c r="E20" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="17" spans="1:7">
+      <c r="F20" s="12" t="str">
+        <f>'Question 1'!I21&amp;'Question 2'!L21</f>
+        <v xml:space="preserve">Question 1: -7
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-2)
+Question 2: -40
+Incorrect Node Constructor(-3)
+Incorrect IQueue Constructor(-10)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G20" s="7">
+        <f>'Question 1'!D21+'Question 2'!D21</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" ht="140.4">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -2064,10 +1960,24 @@
       <c r="E21" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="17" spans="1:7">
+      <c r="F21" s="12" t="str">
+        <f>'Question 1'!I22&amp;'Question 2'!L22</f>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+Question 2: -32
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G21" s="7">
+        <f>'Question 1'!D22+'Question 2'!D22</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="202.8">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -2083,10 +1993,28 @@
       <c r="E22" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="17" spans="1:7">
+      <c r="F22" s="12" t="str">
+        <f>'Question 1'!I23&amp;'Question 2'!L23</f>
+        <v xml:space="preserve">Question 1: -13
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G22" s="7">
+        <f>'Question 1'!D23+'Question 2'!D23</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="78">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -2102,10 +2030,20 @@
       <c r="E23" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" ht="17" spans="1:7">
+      <c r="F23" s="12" t="str">
+        <f>'Question 1'!I24&amp;'Question 2'!L24</f>
+        <v xml:space="preserve">Question 1: -8
+Wrongly overload istream(-8)
+Question 2: -5
+Wrongly determine isEmpty(-5)
+</v>
+      </c>
+      <c r="G23" s="7">
+        <f>'Question 1'!D24+'Question 2'!D24</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="202.8">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -2121,10 +2059,28 @@
       <c r="E24" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" ht="17" spans="1:7">
+      <c r="F24" s="12" t="str">
+        <f>'Question 1'!I25&amp;'Question 2'!L25</f>
+        <v xml:space="preserve">Question 1: -25
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -60
+Incorrect Node Constructor(-5)
+Incorrect IQueue Constructor(-5)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G24" s="7">
+        <f>'Question 1'!D25+'Question 2'!D25</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="218.4">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -2140,10 +2096,29 @@
       <c r="E25" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" ht="17" spans="1:7">
+      <c r="F25" s="12" t="str">
+        <f>'Question 1'!I26&amp;'Question 2'!L26</f>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G25" s="7">
+        <f>'Question 1'!D26+'Question 2'!D26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="171.6">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -2159,16 +2134,45 @@
       <c r="E26" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="12" t="str">
+        <f>'Question 1'!I27&amp;'Question 2'!L27</f>
+        <v xml:space="preserve">Question 1: -22
+Incorrect definition of constructor(-1)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-8)
+Wrongly overload ostream(-10)
+Question 2: -25
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="G26" s="7">
+        <f>'Question 1'!D27+'Question 2'!D27</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="G27" s="5">
+        <f>AVERAGE(G2:G26)</f>
+        <v>45.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="G28" s="5">
+        <f>MEDIAN(G26)</f>
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G26">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
     <sortCondition ref="A2"/>
   </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="1" top="1.45625" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman"&amp;BFCU-Purdue 2+2 ECE Program
 Advanced C Programming
@@ -2176,4 +2180,2326 @@
 Quiz 2 Grading Report</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9454677C-E475-4045-A63E-05FF2D8ECBD7}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="50.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="25">
+        <v>5</v>
+      </c>
+      <c r="F1" s="25">
+        <v>5</v>
+      </c>
+      <c r="G1" s="25">
+        <v>10</v>
+      </c>
+      <c r="H1" s="25">
+        <v>10</v>
+      </c>
+      <c r="I1" s="47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="31.2">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="26">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="25">
+        <f>30-SUM(E3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="25">
+        <v>5</v>
+      </c>
+      <c r="F3" s="25">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25">
+        <v>10</v>
+      </c>
+      <c r="H3" s="25">
+        <v>10</v>
+      </c>
+      <c r="I3" s="29" t="str">
+        <f>I$29&amp;IF(D3=30, "great", D3-30)&amp;CHAR(10)&amp;
+IF(E3=0,"",I$30&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
+IF(F3=0,"",I$31&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",I$32&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",I$33&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" ref="D4:D27" si="0">30-SUM(E4:H4)</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0</v>
+      </c>
+      <c r="G4" s="31">
+        <v>5</v>
+      </c>
+      <c r="H4" s="25">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29" t="str">
+        <f t="shared" ref="I4:I27" si="1">I$29&amp;IF(D4=30, "great", D4-30)&amp;CHAR(10)&amp;
+IF(E4=0,"",I$30&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
+IF(F4=0,"",I$31&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",I$32&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",I$33&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 1: -5
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="31">
+        <v>8</v>
+      </c>
+      <c r="H5" s="25">
+        <v>10</v>
+      </c>
+      <c r="I5" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -18
+Wrongly overload istream(-8)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="25">
+        <v>3</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0</v>
+      </c>
+      <c r="G6" s="31">
+        <v>5</v>
+      </c>
+      <c r="H6" s="25">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="25">
+        <v>0</v>
+      </c>
+      <c r="F7" s="25">
+        <v>0</v>
+      </c>
+      <c r="G7" s="31">
+        <v>5</v>
+      </c>
+      <c r="H7" s="25">
+        <v>0</v>
+      </c>
+      <c r="I7" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -5
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="26">
+        <v>6</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="25">
+        <v>3</v>
+      </c>
+      <c r="F8" s="25">
+        <v>0</v>
+      </c>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
+        <v>0</v>
+      </c>
+      <c r="I8" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -3
+Incorrect definition of constructor(-3)
+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="26">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>5</v>
+      </c>
+      <c r="H9" s="25">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -6
+Incorrect definition of constructor(-1)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="26">
+        <v>8</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="25">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0</v>
+      </c>
+      <c r="G10" s="31">
+        <v>8</v>
+      </c>
+      <c r="H10" s="25">
+        <v>2</v>
+      </c>
+      <c r="I10" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -10
+Wrongly overload istream(-8)
+Wrongly overload ostream(-2)
+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="26">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="25">
+        <v>3</v>
+      </c>
+      <c r="F11" s="25">
+        <v>3</v>
+      </c>
+      <c r="G11" s="31">
+        <v>5</v>
+      </c>
+      <c r="H11" s="25">
+        <v>8</v>
+      </c>
+      <c r="I11" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -19
+Incorrect definition of constructor(-3)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+Wrongly overload ostream(-8)
+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="26">
+        <v>10</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <v>0</v>
+      </c>
+      <c r="G12" s="25">
+        <v>10</v>
+      </c>
+      <c r="H12" s="25">
+        <v>8</v>
+      </c>
+      <c r="I12" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -18
+Wrongly overload istream(-10)
+Wrongly overload ostream(-8)
+</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="26">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0</v>
+      </c>
+      <c r="G13" s="31">
+        <v>5</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="26">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E14" s="25">
+        <v>5</v>
+      </c>
+      <c r="F14" s="25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="25">
+        <v>10</v>
+      </c>
+      <c r="H14" s="25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -25
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="26">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>3</v>
+      </c>
+      <c r="G15" s="31">
+        <v>5</v>
+      </c>
+      <c r="H15" s="25">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -8
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="26">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E16" s="25">
+        <v>3</v>
+      </c>
+      <c r="F16" s="25">
+        <v>0</v>
+      </c>
+      <c r="G16" s="31">
+        <v>5</v>
+      </c>
+      <c r="H16" s="25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -18
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="26">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E17" s="25">
+        <v>3</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>10</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -13
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-10)
+</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="26">
+        <v>16</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>3</v>
+      </c>
+      <c r="G18" s="25">
+        <v>10</v>
+      </c>
+      <c r="H18" s="25">
+        <v>10</v>
+      </c>
+      <c r="I18" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -23
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="25">
+        <v>3</v>
+      </c>
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>10</v>
+      </c>
+      <c r="H19" s="25">
+        <v>10</v>
+      </c>
+      <c r="I19" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -23
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="26">
+        <v>18</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="25">
+        <v>5</v>
+      </c>
+      <c r="F20" s="25">
+        <v>5</v>
+      </c>
+      <c r="G20" s="25">
+        <v>10</v>
+      </c>
+      <c r="H20" s="25">
+        <v>10</v>
+      </c>
+      <c r="I20" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="26">
+        <v>19</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="25">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="25">
+        <v>5</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+      <c r="G21" s="25">
+        <v>2</v>
+      </c>
+      <c r="H21" s="25">
+        <v>0</v>
+      </c>
+      <c r="I21" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -7
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-2)
+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="26">
+        <v>20</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E22" s="25">
+        <v>3</v>
+      </c>
+      <c r="F22" s="25">
+        <v>0</v>
+      </c>
+      <c r="G22" s="31">
+        <v>5</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -8
+Incorrect definition of constructor(-3)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="26">
+        <v>21</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="25">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E23" s="25">
+        <v>5</v>
+      </c>
+      <c r="F23" s="25">
+        <v>3</v>
+      </c>
+      <c r="G23" s="31">
+        <v>5</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -13
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-5)
+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="26">
+        <v>22</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E24" s="25">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+      <c r="G24" s="31">
+        <v>8</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -8
+Wrongly overload istream(-8)
+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="26">
+        <v>23</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="25">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E25" s="25">
+        <v>5</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>10</v>
+      </c>
+      <c r="H25" s="25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -25
+Incorrect definition of constructor(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="25">
+        <v>5</v>
+      </c>
+      <c r="F26" s="25">
+        <v>5</v>
+      </c>
+      <c r="G26" s="25">
+        <v>10</v>
+      </c>
+      <c r="H26" s="25">
+        <v>10</v>
+      </c>
+      <c r="I26" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -30
+Incorrect definition of constructor(-5)
+Incorrect return perimeter and area(-5)
+Wrongly overload istream(-10)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="26">
+        <v>25</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1</v>
+      </c>
+      <c r="F27" s="25">
+        <v>3</v>
+      </c>
+      <c r="G27" s="31">
+        <v>8</v>
+      </c>
+      <c r="H27" s="25">
+        <v>10</v>
+      </c>
+      <c r="I27" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 1: -22
+Incorrect definition of constructor(-1)
+Incorrect return perimeter and area(-3)
+Wrongly overload istream(-8)
+Wrongly overload ostream(-10)
+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="I29" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="I30" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="I31" s="22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="I32" s="23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9">
+      <c r="I33" s="23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="E3:H19 E21:H27">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE73655-BCF3-4A20-9706-A3EDDFEF8960}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="15.77734375" customWidth="1"/>
+    <col min="12" max="12" width="50.77734375" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="34">
+        <v>10</v>
+      </c>
+      <c r="F1" s="34">
+        <v>10</v>
+      </c>
+      <c r="G1" s="34">
+        <v>15</v>
+      </c>
+      <c r="H1" s="34">
+        <v>15</v>
+      </c>
+      <c r="I1" s="34">
+        <v>5</v>
+      </c>
+      <c r="J1" s="34">
+        <v>5</v>
+      </c>
+      <c r="K1" s="34">
+        <v>10</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="43"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="48"/>
+      <c r="M2" s="43"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="37">
+        <f>70-SUM(E3:K3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="34">
+        <v>10</v>
+      </c>
+      <c r="F3" s="34">
+        <v>10</v>
+      </c>
+      <c r="G3" s="34">
+        <v>15</v>
+      </c>
+      <c r="H3" s="34">
+        <v>15</v>
+      </c>
+      <c r="I3" s="34">
+        <v>5</v>
+      </c>
+      <c r="J3" s="34">
+        <v>5</v>
+      </c>
+      <c r="K3" s="34">
+        <v>10</v>
+      </c>
+      <c r="L3" s="38" t="str">
+        <f>L$29&amp;IF(D3=70, "great", D3-70)&amp;CHAR(10)&amp;
+IF(E3=0,"",L$30&amp;"(-"&amp;E3&amp;")"&amp;CHAR(10))&amp;
+IF(F3=0,"",L$31&amp;"(-"&amp;F3&amp;")"&amp;CHAR(10))&amp;
+IF(G3=0,"",L$32&amp;"(-"&amp;G3&amp;")"&amp;CHAR(10))&amp;
+IF(H3=0,"",L$33&amp;"(-"&amp;H3&amp;")"&amp;CHAR(10))&amp;
+IF(I3=0,"",L$34&amp;"(-"&amp;I3&amp;")"&amp;CHAR(10))&amp;
+IF(J3=0,"",L$35&amp;"(-"&amp;J3&amp;")"&amp;CHAR(10))&amp;
+IF(K3=0,"",L$36&amp;"(-"&amp;K3&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="37">
+        <f t="shared" ref="D4:D27" si="0">70-SUM(E4:K4)</f>
+        <v>38</v>
+      </c>
+      <c r="E4" s="34">
+        <v>0</v>
+      </c>
+      <c r="F4" s="34">
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <v>15</v>
+      </c>
+      <c r="H4" s="34">
+        <v>10</v>
+      </c>
+      <c r="I4" s="34">
+        <v>2</v>
+      </c>
+      <c r="J4" s="34">
+        <v>5</v>
+      </c>
+      <c r="K4" s="34">
+        <v>0</v>
+      </c>
+      <c r="L4" s="38" t="str">
+        <f t="shared" ref="L4:L27" si="1">L$29&amp;IF(D4=70, "great", D4-70)&amp;CHAR(10)&amp;
+IF(E4=0,"",L$30&amp;"(-"&amp;E4&amp;")"&amp;CHAR(10))&amp;
+IF(F4=0,"",L$31&amp;"(-"&amp;F4&amp;")"&amp;CHAR(10))&amp;
+IF(G4=0,"",L$32&amp;"(-"&amp;G4&amp;")"&amp;CHAR(10))&amp;
+IF(H4=0,"",L$33&amp;"(-"&amp;H4&amp;")"&amp;CHAR(10))&amp;
+IF(I4=0,"",L$34&amp;"(-"&amp;I4&amp;")"&amp;CHAR(10))&amp;
+IF(J4=0,"",L$35&amp;"(-"&amp;J4&amp;")"&amp;CHAR(10))&amp;
+IF(K4=0,"",L$36&amp;"(-"&amp;K4&amp;")"&amp;CHAR(10))</f>
+        <v xml:space="preserve">Question 2: -32
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="37">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E5" s="34">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34">
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <v>0</v>
+      </c>
+      <c r="H5" s="34">
+        <v>10</v>
+      </c>
+      <c r="I5" s="34">
+        <v>0</v>
+      </c>
+      <c r="J5" s="34">
+        <v>5</v>
+      </c>
+      <c r="K5" s="34">
+        <v>0</v>
+      </c>
+      <c r="L5" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -15
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="37">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E6" s="34">
+        <v>8</v>
+      </c>
+      <c r="F6" s="34">
+        <v>8</v>
+      </c>
+      <c r="G6" s="34">
+        <v>5</v>
+      </c>
+      <c r="H6" s="34">
+        <v>15</v>
+      </c>
+      <c r="I6" s="34">
+        <v>0</v>
+      </c>
+      <c r="J6" s="34">
+        <v>0</v>
+      </c>
+      <c r="K6" s="34">
+        <v>10</v>
+      </c>
+      <c r="L6" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -46
+Incorrect Node Constructor(-8)
+Incorrect IQueue Constructor(-8)
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-15)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="34">
+        <v>10</v>
+      </c>
+      <c r="F7" s="34">
+        <v>10</v>
+      </c>
+      <c r="G7" s="34">
+        <v>15</v>
+      </c>
+      <c r="H7" s="34">
+        <v>15</v>
+      </c>
+      <c r="I7" s="34">
+        <v>5</v>
+      </c>
+      <c r="J7" s="34">
+        <v>5</v>
+      </c>
+      <c r="K7" s="34">
+        <v>10</v>
+      </c>
+      <c r="L7" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="37">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E8" s="34">
+        <v>0</v>
+      </c>
+      <c r="F8" s="34">
+        <v>0</v>
+      </c>
+      <c r="G8" s="34">
+        <v>0</v>
+      </c>
+      <c r="H8" s="34">
+        <v>0</v>
+      </c>
+      <c r="I8" s="34">
+        <v>0</v>
+      </c>
+      <c r="J8" s="34">
+        <v>3</v>
+      </c>
+      <c r="K8" s="34">
+        <v>0</v>
+      </c>
+      <c r="L8" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -3
+Wrongly clear IQueue(-3)
+</v>
+      </c>
+      <c r="M8" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="37">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E9" s="34">
+        <v>3</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>10</v>
+      </c>
+      <c r="H9" s="34">
+        <v>15</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34">
+        <v>5</v>
+      </c>
+      <c r="K9" s="34">
+        <v>10</v>
+      </c>
+      <c r="L9" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -43
+Incorrect Node Constructor(-3)
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-15)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="37">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E10" s="34">
+        <v>3</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>5</v>
+      </c>
+      <c r="I10" s="34">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34">
+        <v>3</v>
+      </c>
+      <c r="K10" s="34">
+        <v>0</v>
+      </c>
+      <c r="L10" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -11
+Incorrect Node Constructor(-3)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-3)
+</v>
+      </c>
+      <c r="M10" s="43"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="37">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="34">
+        <v>0</v>
+      </c>
+      <c r="F11" s="34">
+        <v>0</v>
+      </c>
+      <c r="G11" s="34">
+        <v>5</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" s="34">
+        <v>0</v>
+      </c>
+      <c r="J11" s="34">
+        <v>0</v>
+      </c>
+      <c r="K11" s="34">
+        <v>10</v>
+      </c>
+      <c r="L11" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -15
+Incorrect enqueue method(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M11" s="43"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="34">
+        <v>10</v>
+      </c>
+      <c r="F12" s="34">
+        <v>10</v>
+      </c>
+      <c r="G12" s="34">
+        <v>15</v>
+      </c>
+      <c r="H12" s="34">
+        <v>15</v>
+      </c>
+      <c r="I12" s="34">
+        <v>5</v>
+      </c>
+      <c r="J12" s="34">
+        <v>5</v>
+      </c>
+      <c r="K12" s="34">
+        <v>10</v>
+      </c>
+      <c r="L12" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M12" s="43"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="35">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="37">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E13" s="34">
+        <v>0</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
+      </c>
+      <c r="G13" s="34">
+        <v>5</v>
+      </c>
+      <c r="H13" s="34">
+        <v>10</v>
+      </c>
+      <c r="I13" s="34">
+        <v>0</v>
+      </c>
+      <c r="J13" s="34">
+        <v>5</v>
+      </c>
+      <c r="K13" s="34">
+        <v>0</v>
+      </c>
+      <c r="L13" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -20
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="M13" s="43"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="35">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="37">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E14" s="34">
+        <v>0</v>
+      </c>
+      <c r="F14" s="34">
+        <v>0</v>
+      </c>
+      <c r="G14" s="34">
+        <v>5</v>
+      </c>
+      <c r="H14" s="34">
+        <v>10</v>
+      </c>
+      <c r="I14" s="34">
+        <v>0</v>
+      </c>
+      <c r="J14" s="34">
+        <v>5</v>
+      </c>
+      <c r="K14" s="34">
+        <v>10</v>
+      </c>
+      <c r="L14" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -30
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M14" s="43"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="35">
+        <v>13</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="37">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E15" s="34">
+        <v>0</v>
+      </c>
+      <c r="F15" s="34">
+        <v>0</v>
+      </c>
+      <c r="G15" s="34">
+        <v>10</v>
+      </c>
+      <c r="H15" s="34">
+        <v>5</v>
+      </c>
+      <c r="I15" s="34">
+        <v>0</v>
+      </c>
+      <c r="J15" s="34">
+        <v>5</v>
+      </c>
+      <c r="K15" s="34">
+        <v>8</v>
+      </c>
+      <c r="L15" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -28
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-8)
+</v>
+      </c>
+      <c r="M15" s="43"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="35">
+        <v>14</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="37">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="34">
+        <v>5</v>
+      </c>
+      <c r="F16" s="34">
+        <v>10</v>
+      </c>
+      <c r="G16" s="34">
+        <v>15</v>
+      </c>
+      <c r="H16" s="34">
+        <v>15</v>
+      </c>
+      <c r="I16" s="34">
+        <v>5</v>
+      </c>
+      <c r="J16" s="34">
+        <v>5</v>
+      </c>
+      <c r="K16" s="34">
+        <v>10</v>
+      </c>
+      <c r="L16" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -65
+Incorrect Node Constructor(-5)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M16" s="43"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="35">
+        <v>15</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="34">
+        <v>0</v>
+      </c>
+      <c r="G17" s="34">
+        <v>0</v>
+      </c>
+      <c r="H17" s="34">
+        <v>10</v>
+      </c>
+      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <v>5</v>
+      </c>
+      <c r="K17" s="34">
+        <v>10</v>
+      </c>
+      <c r="L17" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -25
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M17" s="43"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="35">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="34">
+        <v>10</v>
+      </c>
+      <c r="F18" s="34">
+        <v>10</v>
+      </c>
+      <c r="G18" s="34">
+        <v>15</v>
+      </c>
+      <c r="H18" s="34">
+        <v>15</v>
+      </c>
+      <c r="I18" s="34">
+        <v>5</v>
+      </c>
+      <c r="J18" s="34">
+        <v>5</v>
+      </c>
+      <c r="K18" s="34">
+        <v>10</v>
+      </c>
+      <c r="L18" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M18" s="43"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="35">
+        <v>17</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E19" s="37">
+        <v>0</v>
+      </c>
+      <c r="F19" s="37">
+        <v>0</v>
+      </c>
+      <c r="G19" s="42">
+        <v>10</v>
+      </c>
+      <c r="H19" s="42">
+        <v>10</v>
+      </c>
+      <c r="I19" s="37">
+        <v>2</v>
+      </c>
+      <c r="J19" s="37">
+        <v>5</v>
+      </c>
+      <c r="K19" s="37">
+        <v>0</v>
+      </c>
+      <c r="L19" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -27
+Incorrect enqueue method(-10)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+</v>
+      </c>
+      <c r="M19" s="43"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="35">
+        <v>18</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E20" s="34">
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
+        <v>0</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0</v>
+      </c>
+      <c r="H20" s="34">
+        <v>10</v>
+      </c>
+      <c r="I20" s="34">
+        <v>0</v>
+      </c>
+      <c r="J20" s="34">
+        <v>5</v>
+      </c>
+      <c r="K20" s="34">
+        <v>10</v>
+      </c>
+      <c r="L20" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -28
+Incorrect Node Constructor(-3)
+Incorrect dequeue method(-10)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M20" s="43"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="35">
+        <v>19</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="37">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E21" s="34">
+        <v>3</v>
+      </c>
+      <c r="F21" s="34">
+        <v>10</v>
+      </c>
+      <c r="G21" s="34">
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <v>10</v>
+      </c>
+      <c r="I21" s="34">
+        <v>2</v>
+      </c>
+      <c r="J21" s="34">
+        <v>5</v>
+      </c>
+      <c r="K21" s="34">
+        <v>10</v>
+      </c>
+      <c r="L21" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -40
+Incorrect Node Constructor(-3)
+Incorrect IQueue Constructor(-10)
+Incorrect dequeue method(-10)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M21" s="43"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35">
+        <v>20</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="37">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E22" s="34">
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
+        <v>0</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <v>15</v>
+      </c>
+      <c r="I22" s="34">
+        <v>2</v>
+      </c>
+      <c r="J22" s="34">
+        <v>5</v>
+      </c>
+      <c r="K22" s="34">
+        <v>10</v>
+      </c>
+      <c r="L22" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -32
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-2)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="35">
+        <v>21</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="34">
+        <v>10</v>
+      </c>
+      <c r="F23" s="34">
+        <v>10</v>
+      </c>
+      <c r="G23" s="34">
+        <v>15</v>
+      </c>
+      <c r="H23" s="34">
+        <v>15</v>
+      </c>
+      <c r="I23" s="34">
+        <v>5</v>
+      </c>
+      <c r="J23" s="34">
+        <v>5</v>
+      </c>
+      <c r="K23" s="34">
+        <v>10</v>
+      </c>
+      <c r="L23" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="35">
+        <v>22</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="37">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="34">
+        <v>0</v>
+      </c>
+      <c r="F24" s="34">
+        <v>0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>0</v>
+      </c>
+      <c r="H24" s="34">
+        <v>0</v>
+      </c>
+      <c r="I24" s="41">
+        <v>5</v>
+      </c>
+      <c r="J24" s="34">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34">
+        <v>0</v>
+      </c>
+      <c r="L24" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -5
+Wrongly determine isEmpty(-5)
+</v>
+      </c>
+      <c r="M24" s="43"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="35">
+        <v>23</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="37">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E25" s="34">
+        <v>5</v>
+      </c>
+      <c r="F25" s="34">
+        <v>5</v>
+      </c>
+      <c r="G25" s="34">
+        <v>15</v>
+      </c>
+      <c r="H25" s="34">
+        <v>15</v>
+      </c>
+      <c r="I25" s="34">
+        <v>5</v>
+      </c>
+      <c r="J25" s="34">
+        <v>5</v>
+      </c>
+      <c r="K25" s="34">
+        <v>10</v>
+      </c>
+      <c r="L25" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -60
+Incorrect Node Constructor(-5)
+Incorrect IQueue Constructor(-5)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M25" s="43"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35">
+        <v>24</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="34">
+        <v>10</v>
+      </c>
+      <c r="F26" s="34">
+        <v>10</v>
+      </c>
+      <c r="G26" s="34">
+        <v>15</v>
+      </c>
+      <c r="H26" s="34">
+        <v>15</v>
+      </c>
+      <c r="I26" s="34">
+        <v>5</v>
+      </c>
+      <c r="J26" s="34">
+        <v>5</v>
+      </c>
+      <c r="K26" s="34">
+        <v>10</v>
+      </c>
+      <c r="L26" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -70
+Incorrect Node Constructor(-10)
+Incorrect IQueue Constructor(-10)
+Incorrect enqueue method(-15)
+Incorrect dequeue method(-15)
+Wrongly determine isEmpty(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M26" s="43"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="35">
+        <v>25</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="37">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E27" s="34">
+        <v>0</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0</v>
+      </c>
+      <c r="G27" s="34">
+        <v>5</v>
+      </c>
+      <c r="H27" s="34">
+        <v>5</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0</v>
+      </c>
+      <c r="J27" s="34">
+        <v>5</v>
+      </c>
+      <c r="K27" s="34">
+        <v>10</v>
+      </c>
+      <c r="L27" s="38" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve">Question 2: -25
+Incorrect enqueue method(-5)
+Incorrect dequeue method(-5)
+Wrongly clear IQueue(-5)
+Incorrect main function logic(-10)
+</v>
+      </c>
+      <c r="M27" s="43"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="L28" s="24"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="L29" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="L30" s="22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="L31" s="22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="L32" s="23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12">
+      <c r="L34" s="22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="12:12">
+      <c r="L35" s="22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="12:12">
+      <c r="L36" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37" s="22"/>
+    </row>
+    <row r="38" spans="12:12">
+      <c r="L38" s="22"/>
+    </row>
+    <row r="39" spans="12:12">
+      <c r="L39" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="L1:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="E4:K6 E8:K11 E13:K17 E19:K22 E24:K24 E27:K27 E25:F25 K25">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>E$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>